--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -7,9 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Expenses" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RecurringExpenses" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Budget" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,446 +429,48 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>indoorCooking</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2024-09-01</t>
-        </is>
+          <t>outdoorDinners</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>transportFees</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>500</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2024-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>indoorCooking</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>indoorCooking</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-09-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>indoorCooking</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8888</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>indoorCooking</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>entertainment</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>460</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
           <t>outdoorDinners</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>580</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5880</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>shopping</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9880</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>medicalFees</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>880</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>transportFees</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>500</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>transportFees</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>500</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2024-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>transportFees</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>500</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2024-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>transportFees</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>500</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2024-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>transportFees</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>500</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Good Limit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Normal Limit</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>indoorCooking</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>55000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>outdoorDinners</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3250</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>transportFees</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>entertainment</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>375</v>
-      </c>
-      <c r="C6" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>shopping</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6250</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>medicalFees</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
